--- a/biology/Zoologie/Apistogramma/Apistogramma.xlsx
+++ b/biology/Zoologie/Apistogramma/Apistogramma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apistogramma est un genre de poissons de la famille des Cichlidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire du genre Apistogramma débute au XIXe siècle, quand, en 1852, le naturaliste anglais Henry Walter Bates découvre le premier spécimen de Cichlidae nains (Apistogramma taeniata) dans le rio Cupai, considéré actuellement comme l'espèce type du genre.
 </t>
@@ -542,7 +556,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Apistogramma comprend environ 90 espèces (dont 63 décrites scientifiquement) appartenant à la famille des Cichlidae. Ces espèces se situent principalement dans le bassin de l'Amazone ainsi qu'au Venezuela.
 Selon Kullander, qui a révisé le genre en 1980, les espèces du genre Apistogramma peuvent être distinguées grâce aux caractères morphologiques suivants : 
@@ -579,7 +595,9 @@
           <t>Biotope</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Apistogramma n'est présent qu'en Amérique du Sud tropicale et subtropicale : bassin du Rio Amazonas, bassin du Rio Paraguay, bassin de l'Orénoque, etc. La plupart des espèces sont originaires de la forêt tropicale humide, qui (rappelons le) est actuellement en régression.
 Le biotope de prédilection des Apistogramma se trouve près des berges, là où la profondeur de l'eau n'excède pas 10 cm. Il y existe une multitude de caches formées par un enchevêtrement de racines, branches mortes, feuilles, ... Il n'est cependant pas rare de trouver des bancs de plusieurs centaines d'individus nageant en pleine eau, à découvert au-dessus des bancs de sable.
@@ -614,7 +632,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'ajoute également à ces espèces décrites scientifiquement une trentaine d'espèces encore non décrites et des synonymes dont voici une liste non exhaustive
 </t>
